--- a/outputs/tables/scores.xlsx
+++ b/outputs/tables/scores.xlsx
@@ -1,43 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Specificity</t>
+  </si>
+  <si>
+    <t>F1 score</t>
+  </si>
+  <si>
+    <t>DNN</t>
+  </si>
+  <si>
+    <t>cardio.</t>
+  </si>
+  <si>
+    <t>emerg.</t>
+  </si>
+  <si>
+    <t>stud.</t>
+  </si>
+  <si>
+    <t>1dAVb</t>
+  </si>
+  <si>
+    <t>RBBB</t>
+  </si>
+  <si>
+    <t>LBBB</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,54 +96,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -381,464 +412,406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Specificity</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="n"/>
-      <c r="L1" s="1" t="n"/>
-      <c r="M1" s="1" t="n"/>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>F1 score</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="n"/>
-      <c r="P1" s="1" t="n"/>
-      <c r="Q1" s="1" t="n"/>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>DNN</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>cardio.</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>emerg.</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>stud.</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>DNN</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>cardio.</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>emerg.</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>stud.</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>DNN</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>cardio.</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>emerg.</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>stud.</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>DNN</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>cardio.</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>emerg.</t>
-        </is>
-      </c>
-      <c r="Q2" s="1" t="inlineStr">
-        <is>
-          <t>stud.</t>
-        </is>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1dAVb</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>0.867</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.905</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.639</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.605</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.929</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.679</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.821</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.929</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>0.995</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>0.997</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>0.984</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>0.979</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>0.897</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>0.776</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>0.719</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>0.732</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RBBB</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>0.895</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.868</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.963</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.914</v>
       </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>0.971</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.765</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.9409999999999999</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>0.995</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>0.994</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>0.999</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>0.996</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>0.944</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>0.917</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>0.852</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>0.928</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>LBBB</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>0.963</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.931</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>0.9</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.867</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.9</v>
       </c>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.999</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>0.997</v>
       </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>0.947</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>0.912</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>0.915</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>SB</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
         <v>0.833</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.833</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.824</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.75</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.9379999999999999</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.9379999999999999</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.875</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.75</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>0.996</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>0.996</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>0.996</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>0.995</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>0.882</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>0.882</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>0.848</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>0.75</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>AF</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>0.769</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.571</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.769</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.769</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.615</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.923</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>0.996</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>0.998</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>0.989</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>0.87</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>0.769</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>0.696</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>0.706</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
         <v>0.947</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.968</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.946</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.912</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.973</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.8110000000000001</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.946</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.838</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>0.997</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>0.999</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>0.997</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>0.996</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>0.96</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>0.882</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>0.946</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>0.873</v>
       </c>
     </row>
@@ -849,6 +822,6 @@
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>